--- a/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,12 +232,12 @@
     <t>Progreso</t>
   </si>
   <si>
+    <t>Rampla Juniors</t>
+  </si>
+  <si>
     <t>Sud América</t>
   </si>
   <si>
-    <t>Rampla Juniors</t>
-  </si>
-  <si>
     <t>Cerrito</t>
   </si>
   <si>
@@ -271,6 +271,9 @@
     <t>['7', '45', '46', '74', '86']</t>
   </si>
   <si>
+    <t>['15', '45+1', '90+2']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -278,6 +281,9 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['51']</t>
   </si>
 </sst>
 </file>
@@ -639,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK8"/>
+  <dimension ref="A1:BK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -859,7 +865,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1050,7 +1056,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1456,7 +1462,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1647,7 +1653,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1838,7 +1844,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2171,6 +2177,197 @@
       </c>
       <c r="BK8">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5451964</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44996.40625</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>9</v>
+      </c>
+      <c r="T9">
+        <v>2.75</v>
+      </c>
+      <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
+        <v>4.33</v>
+      </c>
+      <c r="W9">
+        <v>1.5</v>
+      </c>
+      <c r="X9">
+        <v>2.5</v>
+      </c>
+      <c r="Y9">
+        <v>3.5</v>
+      </c>
+      <c r="Z9">
+        <v>1.25</v>
+      </c>
+      <c r="AA9">
+        <v>9.5</v>
+      </c>
+      <c r="AB9">
+        <v>1.04</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>3</v>
+      </c>
+      <c r="AE9">
+        <v>3.5</v>
+      </c>
+      <c r="AF9">
+        <v>1.07</v>
+      </c>
+      <c r="AG9">
+        <v>7</v>
+      </c>
+      <c r="AH9">
+        <v>1.44</v>
+      </c>
+      <c r="AI9">
+        <v>2.6</v>
+      </c>
+      <c r="AJ9">
+        <v>2.4</v>
+      </c>
+      <c r="AK9">
+        <v>1.53</v>
+      </c>
+      <c r="AL9">
+        <v>2.04</v>
+      </c>
+      <c r="AM9">
+        <v>1.74</v>
+      </c>
+      <c r="AN9">
+        <v>1.24</v>
+      </c>
+      <c r="AO9">
+        <v>1.31</v>
+      </c>
+      <c r="AP9">
+        <v>1.68</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>3</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>4</v>
+      </c>
+      <c r="BG9">
+        <v>2</v>
+      </c>
+      <c r="BH9">
+        <v>7</v>
+      </c>
+      <c r="BI9">
+        <v>5</v>
+      </c>
+      <c r="BJ9">
+        <v>11</v>
+      </c>
+      <c r="BK9">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -238,12 +238,12 @@
     <t>Sud América</t>
   </si>
   <si>
+    <t>Miramar Misiones</t>
+  </si>
+  <si>
     <t>Cerrito</t>
   </si>
   <si>
-    <t>Miramar Misiones</t>
-  </si>
-  <si>
     <t>Rentistas</t>
   </si>
   <si>
@@ -274,6 +274,12 @@
     <t>['15', '45+1', '90+2']</t>
   </si>
   <si>
+    <t>['52', '67', '75', '90+7']</t>
+  </si>
+  <si>
+    <t>['33', '34', '84']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -284,6 +290,12 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['38', '49']</t>
+  </si>
+  <si>
+    <t>['11', '58']</t>
   </si>
 </sst>
 </file>
@@ -645,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK9"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1247,7 +1259,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1462,7 +1474,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1629,7 +1641,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1653,7 +1665,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1844,7 +1856,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2226,7 +2238,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2368,6 +2380,388 @@
       </c>
       <c r="BK9">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5451963</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44996.70833333334</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>3.4</v>
+      </c>
+      <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
+        <v>3.4</v>
+      </c>
+      <c r="W10">
+        <v>1.52</v>
+      </c>
+      <c r="X10">
+        <v>2.35</v>
+      </c>
+      <c r="Y10">
+        <v>3.34</v>
+      </c>
+      <c r="Z10">
+        <v>1.28</v>
+      </c>
+      <c r="AA10">
+        <v>8.5</v>
+      </c>
+      <c r="AB10">
+        <v>1.04</v>
+      </c>
+      <c r="AC10">
+        <v>2.48</v>
+      </c>
+      <c r="AD10">
+        <v>3.37</v>
+      </c>
+      <c r="AE10">
+        <v>2.38</v>
+      </c>
+      <c r="AF10">
+        <v>1.06</v>
+      </c>
+      <c r="AG10">
+        <v>8.5</v>
+      </c>
+      <c r="AH10">
+        <v>1.43</v>
+      </c>
+      <c r="AI10">
+        <v>2.54</v>
+      </c>
+      <c r="AJ10">
+        <v>2.35</v>
+      </c>
+      <c r="AK10">
+        <v>1.53</v>
+      </c>
+      <c r="AL10">
+        <v>1.97</v>
+      </c>
+      <c r="AM10">
+        <v>1.71</v>
+      </c>
+      <c r="AN10">
+        <v>1.43</v>
+      </c>
+      <c r="AO10">
+        <v>1.32</v>
+      </c>
+      <c r="AP10">
+        <v>1.41</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>3</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>1.37</v>
+      </c>
+      <c r="BC10">
+        <v>2.1</v>
+      </c>
+      <c r="BD10">
+        <v>2.1</v>
+      </c>
+      <c r="BE10">
+        <v>2.85</v>
+      </c>
+      <c r="BF10">
+        <v>8</v>
+      </c>
+      <c r="BG10">
+        <v>12</v>
+      </c>
+      <c r="BH10">
+        <v>4</v>
+      </c>
+      <c r="BI10">
+        <v>7</v>
+      </c>
+      <c r="BJ10">
+        <v>12</v>
+      </c>
+      <c r="BK10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5451981</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44996.90972222222</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>12</v>
+      </c>
+      <c r="T11">
+        <v>2.3</v>
+      </c>
+      <c r="U11">
+        <v>2.05</v>
+      </c>
+      <c r="V11">
+        <v>5.5</v>
+      </c>
+      <c r="W11">
+        <v>1.52</v>
+      </c>
+      <c r="X11">
+        <v>2.46</v>
+      </c>
+      <c r="Y11">
+        <v>3.34</v>
+      </c>
+      <c r="Z11">
+        <v>1.28</v>
+      </c>
+      <c r="AA11">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>1.03</v>
+      </c>
+      <c r="AC11">
+        <v>1.62</v>
+      </c>
+      <c r="AD11">
+        <v>3.4</v>
+      </c>
+      <c r="AE11">
+        <v>5.5</v>
+      </c>
+      <c r="AF11">
+        <v>1.08</v>
+      </c>
+      <c r="AG11">
+        <v>6.5</v>
+      </c>
+      <c r="AH11">
+        <v>1.42</v>
+      </c>
+      <c r="AI11">
+        <v>2.57</v>
+      </c>
+      <c r="AJ11">
+        <v>2.25</v>
+      </c>
+      <c r="AK11">
+        <v>1.62</v>
+      </c>
+      <c r="AL11">
+        <v>2.07</v>
+      </c>
+      <c r="AM11">
+        <v>1.72</v>
+      </c>
+      <c r="AN11">
+        <v>1.2</v>
+      </c>
+      <c r="AO11">
+        <v>1.33</v>
+      </c>
+      <c r="AP11">
+        <v>1.73</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>3</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>2.1</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>8</v>
+      </c>
+      <c r="BG11">
+        <v>8</v>
+      </c>
+      <c r="BH11">
+        <v>9</v>
+      </c>
+      <c r="BI11">
+        <v>3</v>
+      </c>
+      <c r="BJ11">
+        <v>17</v>
+      </c>
+      <c r="BK11">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -250,6 +250,9 @@
     <t>Atenas</t>
   </si>
   <si>
+    <t>Tacuarembó</t>
+  </si>
+  <si>
     <t>['55']</t>
   </si>
   <si>
@@ -280,6 +283,9 @@
     <t>['33', '34', '84']</t>
   </si>
   <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -296,6 +302,9 @@
   </si>
   <si>
     <t>['11', '58']</t>
+  </si>
+  <si>
+    <t>['13', '68']</t>
   </si>
 </sst>
 </file>
@@ -657,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,10 +907,10 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1089,10 +1098,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1280,10 +1289,10 @@
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1471,10 +1480,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1662,10 +1671,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1853,10 +1862,10 @@
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2044,10 +2053,10 @@
         <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2235,10 +2244,10 @@
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2426,10 +2435,10 @@
         <v>6</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2617,10 +2626,10 @@
         <v>5</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2762,6 +2771,388 @@
       </c>
       <c r="BK11">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5451983</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44997.70833333334</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>19</v>
+      </c>
+      <c r="T12">
+        <v>2.1</v>
+      </c>
+      <c r="U12">
+        <v>2.1</v>
+      </c>
+      <c r="V12">
+        <v>6</v>
+      </c>
+      <c r="W12">
+        <v>1.42</v>
+      </c>
+      <c r="X12">
+        <v>2.67</v>
+      </c>
+      <c r="Y12">
+        <v>2.99</v>
+      </c>
+      <c r="Z12">
+        <v>1.34</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>1.53</v>
+      </c>
+      <c r="AD12">
+        <v>4.1</v>
+      </c>
+      <c r="AE12">
+        <v>5.25</v>
+      </c>
+      <c r="AF12">
+        <v>1.05</v>
+      </c>
+      <c r="AG12">
+        <v>8</v>
+      </c>
+      <c r="AH12">
+        <v>1.32</v>
+      </c>
+      <c r="AI12">
+        <v>2.98</v>
+      </c>
+      <c r="AJ12">
+        <v>2.05</v>
+      </c>
+      <c r="AK12">
+        <v>1.73</v>
+      </c>
+      <c r="AL12">
+        <v>2.09</v>
+      </c>
+      <c r="AM12">
+        <v>1.63</v>
+      </c>
+      <c r="AN12">
+        <v>1.08</v>
+      </c>
+      <c r="AO12">
+        <v>1.21</v>
+      </c>
+      <c r="AP12">
+        <v>2.42</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>3</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>1.54</v>
+      </c>
+      <c r="BB12">
+        <v>2</v>
+      </c>
+      <c r="BC12">
+        <v>2.65</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>4</v>
+      </c>
+      <c r="BH12">
+        <v>6</v>
+      </c>
+      <c r="BI12">
+        <v>6</v>
+      </c>
+      <c r="BJ12">
+        <v>6</v>
+      </c>
+      <c r="BK12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5451982</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44997.79166666666</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>2.5</v>
+      </c>
+      <c r="U13">
+        <v>2.1</v>
+      </c>
+      <c r="V13">
+        <v>4.5</v>
+      </c>
+      <c r="W13">
+        <v>1.45</v>
+      </c>
+      <c r="X13">
+        <v>2.59</v>
+      </c>
+      <c r="Y13">
+        <v>3.11</v>
+      </c>
+      <c r="Z13">
+        <v>1.32</v>
+      </c>
+      <c r="AA13">
+        <v>7.7</v>
+      </c>
+      <c r="AB13">
+        <v>1.05</v>
+      </c>
+      <c r="AC13">
+        <v>1.81</v>
+      </c>
+      <c r="AD13">
+        <v>3.42</v>
+      </c>
+      <c r="AE13">
+        <v>4.15</v>
+      </c>
+      <c r="AF13">
+        <v>1.06</v>
+      </c>
+      <c r="AG13">
+        <v>7.5</v>
+      </c>
+      <c r="AH13">
+        <v>1.36</v>
+      </c>
+      <c r="AI13">
+        <v>2.9</v>
+      </c>
+      <c r="AJ13">
+        <v>2.15</v>
+      </c>
+      <c r="AK13">
+        <v>1.67</v>
+      </c>
+      <c r="AL13">
+        <v>1.85</v>
+      </c>
+      <c r="AM13">
+        <v>1.85</v>
+      </c>
+      <c r="AN13">
+        <v>1.2</v>
+      </c>
+      <c r="AO13">
+        <v>1.28</v>
+      </c>
+      <c r="AP13">
+        <v>1.65</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>1.3</v>
+      </c>
+      <c r="BB13">
+        <v>1.55</v>
+      </c>
+      <c r="BC13">
+        <v>2</v>
+      </c>
+      <c r="BD13">
+        <v>2.63</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>5</v>
+      </c>
+      <c r="BG13">
+        <v>5</v>
+      </c>
+      <c r="BH13">
+        <v>3</v>
+      </c>
+      <c r="BI13">
+        <v>13</v>
+      </c>
+      <c r="BJ13">
+        <v>8</v>
+      </c>
+      <c r="BK13">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK13"/>
+  <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -3188,6 +3188,412 @@
       </c>
       <c r="BK13" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5451985</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Uruguay Segunda División</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45002.6875</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Juventud</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Miramar Misiones</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8</v>
+      </c>
+      <c r="S14" t="n">
+        <v>16</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5451986</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Uruguay Segunda División</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45002.89583333334</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Potencia</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Bella Vista</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>['3', '34']</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -292,6 +292,9 @@
     <t>['20']</t>
   </si>
   <si>
+    <t>['18', '23', '32', '80']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -326,6 +329,15 @@
   </si>
   <si>
     <t>['46', '75']</t>
+  </si>
+  <si>
+    <t>['20', '34']</t>
+  </si>
+  <si>
+    <t>['76', '89']</t>
+  </si>
+  <si>
+    <t>['36+36', '42+42']</t>
   </si>
 </sst>
 </file>
@@ -687,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK19"/>
+  <dimension ref="A1:BK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1403,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1504,7 +1516,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1695,7 +1707,7 @@
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1782,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -1886,7 +1898,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2167,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2268,7 +2280,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2459,7 +2471,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2546,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT10">
         <v>0</v>
@@ -2650,7 +2662,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2841,7 +2853,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q12">
         <v>12</v>
@@ -2931,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3119,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3414,7 +3426,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3605,7 +3617,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q16">
         <v>-1</v>
@@ -3796,7 +3808,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -3987,7 +3999,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4178,7 +4190,7 @@
         <v>82</v>
       </c>
       <c r="P19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4320,6 +4332,770 @@
       </c>
       <c r="BK19">
         <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5451989</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45009.79166666666</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>8</v>
+      </c>
+      <c r="T20">
+        <v>2.5</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>4.75</v>
+      </c>
+      <c r="W20">
+        <v>1.42</v>
+      </c>
+      <c r="X20">
+        <v>2.6</v>
+      </c>
+      <c r="Y20">
+        <v>3.18</v>
+      </c>
+      <c r="Z20">
+        <v>1.31</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>1.8</v>
+      </c>
+      <c r="AD20">
+        <v>3.2</v>
+      </c>
+      <c r="AE20">
+        <v>4</v>
+      </c>
+      <c r="AF20">
+        <v>1.07</v>
+      </c>
+      <c r="AG20">
+        <v>7</v>
+      </c>
+      <c r="AH20">
+        <v>1.43</v>
+      </c>
+      <c r="AI20">
+        <v>2.6</v>
+      </c>
+      <c r="AJ20">
+        <v>2.28</v>
+      </c>
+      <c r="AK20">
+        <v>1.57</v>
+      </c>
+      <c r="AL20">
+        <v>2.04</v>
+      </c>
+      <c r="AM20">
+        <v>1.7</v>
+      </c>
+      <c r="AN20">
+        <v>1.19</v>
+      </c>
+      <c r="AO20">
+        <v>1.28</v>
+      </c>
+      <c r="AP20">
+        <v>1.84</v>
+      </c>
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>2</v>
+      </c>
+      <c r="AT20">
+        <v>0.5</v>
+      </c>
+      <c r="AU20">
+        <v>1.18</v>
+      </c>
+      <c r="AV20">
+        <v>1.06</v>
+      </c>
+      <c r="AW20">
+        <v>2.24</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>5</v>
+      </c>
+      <c r="BG20">
+        <v>2</v>
+      </c>
+      <c r="BH20">
+        <v>4</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>9</v>
+      </c>
+      <c r="BK20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5451970</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45010.66666666666</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <v>12</v>
+      </c>
+      <c r="T21">
+        <v>3.25</v>
+      </c>
+      <c r="U21">
+        <v>1.91</v>
+      </c>
+      <c r="V21">
+        <v>3.5</v>
+      </c>
+      <c r="W21">
+        <v>1.54</v>
+      </c>
+      <c r="X21">
+        <v>2.36</v>
+      </c>
+      <c r="Y21">
+        <v>3.42</v>
+      </c>
+      <c r="Z21">
+        <v>1.27</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>2.85</v>
+      </c>
+      <c r="AD21">
+        <v>2.86</v>
+      </c>
+      <c r="AE21">
+        <v>2.59</v>
+      </c>
+      <c r="AF21">
+        <v>1.09</v>
+      </c>
+      <c r="AG21">
+        <v>6</v>
+      </c>
+      <c r="AH21">
+        <v>1.48</v>
+      </c>
+      <c r="AI21">
+        <v>2.5</v>
+      </c>
+      <c r="AJ21">
+        <v>2.55</v>
+      </c>
+      <c r="AK21">
+        <v>1.46</v>
+      </c>
+      <c r="AL21">
+        <v>1.95</v>
+      </c>
+      <c r="AM21">
+        <v>1.75</v>
+      </c>
+      <c r="AN21">
+        <v>1.44</v>
+      </c>
+      <c r="AO21">
+        <v>1.3</v>
+      </c>
+      <c r="AP21">
+        <v>1.33</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>1.5</v>
+      </c>
+      <c r="AT21">
+        <v>1.5</v>
+      </c>
+      <c r="AU21">
+        <v>1.68</v>
+      </c>
+      <c r="AV21">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AW21">
+        <v>2.37</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>1.35</v>
+      </c>
+      <c r="BB21">
+        <v>1.64</v>
+      </c>
+      <c r="BC21">
+        <v>2.1</v>
+      </c>
+      <c r="BD21">
+        <v>2.88</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>3</v>
+      </c>
+      <c r="BH21">
+        <v>7</v>
+      </c>
+      <c r="BI21">
+        <v>7</v>
+      </c>
+      <c r="BJ21">
+        <v>7</v>
+      </c>
+      <c r="BK21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5451988</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45010.6875</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <v>8</v>
+      </c>
+      <c r="S22">
+        <v>16</v>
+      </c>
+      <c r="T22">
+        <v>2.88</v>
+      </c>
+      <c r="U22">
+        <v>1.95</v>
+      </c>
+      <c r="V22">
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <v>1.5</v>
+      </c>
+      <c r="X22">
+        <v>2.4</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>2.18</v>
+      </c>
+      <c r="AD22">
+        <v>3.1</v>
+      </c>
+      <c r="AE22">
+        <v>3.34</v>
+      </c>
+      <c r="AF22">
+        <v>1.09</v>
+      </c>
+      <c r="AG22">
+        <v>6</v>
+      </c>
+      <c r="AH22">
+        <v>1.37</v>
+      </c>
+      <c r="AI22">
+        <v>2.88</v>
+      </c>
+      <c r="AJ22">
+        <v>2.4</v>
+      </c>
+      <c r="AK22">
+        <v>1.5</v>
+      </c>
+      <c r="AL22">
+        <v>2.13</v>
+      </c>
+      <c r="AM22">
+        <v>1.67</v>
+      </c>
+      <c r="AN22">
+        <v>1.23</v>
+      </c>
+      <c r="AO22">
+        <v>1.25</v>
+      </c>
+      <c r="AP22">
+        <v>1.65</v>
+      </c>
+      <c r="AQ22">
+        <v>3</v>
+      </c>
+      <c r="AR22">
+        <v>3</v>
+      </c>
+      <c r="AS22">
+        <v>3</v>
+      </c>
+      <c r="AT22">
+        <v>1.5</v>
+      </c>
+      <c r="AU22">
+        <v>2.07</v>
+      </c>
+      <c r="AV22">
+        <v>1.22</v>
+      </c>
+      <c r="AW22">
+        <v>3.29</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>2.25</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>8</v>
+      </c>
+      <c r="BG22">
+        <v>5</v>
+      </c>
+      <c r="BH22">
+        <v>5</v>
+      </c>
+      <c r="BI22">
+        <v>5</v>
+      </c>
+      <c r="BJ22">
+        <v>13</v>
+      </c>
+      <c r="BK22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5451987</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45010.875</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>9</v>
+      </c>
+      <c r="T23">
+        <v>3.2</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>3.5</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>2.46</v>
+      </c>
+      <c r="AD23">
+        <v>3.13</v>
+      </c>
+      <c r="AE23">
+        <v>2.78</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>2.23</v>
+      </c>
+      <c r="AK23">
+        <v>1.58</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0.5</v>
+      </c>
+      <c r="AT23">
+        <v>1.5</v>
+      </c>
+      <c r="AU23">
+        <v>1.05</v>
+      </c>
+      <c r="AV23">
+        <v>2.13</v>
+      </c>
+      <c r="AW23">
+        <v>3.18</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>9</v>
+      </c>
+      <c r="BG23">
+        <v>7</v>
+      </c>
+      <c r="BH23">
+        <v>7</v>
+      </c>
+      <c r="BI23">
+        <v>5</v>
+      </c>
+      <c r="BJ23">
+        <v>16</v>
+      </c>
+      <c r="BK23">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="110">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -295,6 +295,9 @@
     <t>['18', '23', '32', '80']</t>
   </si>
   <si>
+    <t>['64']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -338,6 +341,9 @@
   </si>
   <si>
     <t>['36+36', '42+42']</t>
+  </si>
+  <si>
+    <t>['52', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -699,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK23"/>
+  <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
         <v>1.5</v>
@@ -1516,7 +1522,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1707,7 +1713,7 @@
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1898,7 +1904,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2280,7 +2286,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2370,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2471,7 +2477,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2662,7 +2668,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2853,7 +2859,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>12</v>
@@ -3426,7 +3432,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3617,7 +3623,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q16">
         <v>-1</v>
@@ -3808,7 +3814,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -3999,7 +4005,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4190,7 +4196,7 @@
         <v>82</v>
       </c>
       <c r="P19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4572,7 +4578,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4763,7 +4769,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -4954,7 +4960,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5096,6 +5102,197 @@
       </c>
       <c r="BK23">
         <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5451969</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45011.6875</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>9</v>
+      </c>
+      <c r="S24">
+        <v>15</v>
+      </c>
+      <c r="T24">
+        <v>3.5</v>
+      </c>
+      <c r="U24">
+        <v>1.91</v>
+      </c>
+      <c r="V24">
+        <v>3.25</v>
+      </c>
+      <c r="W24">
+        <v>1.53</v>
+      </c>
+      <c r="X24">
+        <v>2.4</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>2.91</v>
+      </c>
+      <c r="AD24">
+        <v>2.84</v>
+      </c>
+      <c r="AE24">
+        <v>2.3</v>
+      </c>
+      <c r="AF24">
+        <v>1.11</v>
+      </c>
+      <c r="AG24">
+        <v>6</v>
+      </c>
+      <c r="AH24">
+        <v>1.5</v>
+      </c>
+      <c r="AI24">
+        <v>2.5</v>
+      </c>
+      <c r="AJ24">
+        <v>2.25</v>
+      </c>
+      <c r="AK24">
+        <v>1.46</v>
+      </c>
+      <c r="AL24">
+        <v>2.04</v>
+      </c>
+      <c r="AM24">
+        <v>1.72</v>
+      </c>
+      <c r="AN24">
+        <v>1.44</v>
+      </c>
+      <c r="AO24">
+        <v>1.37</v>
+      </c>
+      <c r="AP24">
+        <v>1.42</v>
+      </c>
+      <c r="AQ24">
+        <v>3</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>1.5</v>
+      </c>
+      <c r="AT24">
+        <v>1.5</v>
+      </c>
+      <c r="AU24">
+        <v>1.07</v>
+      </c>
+      <c r="AV24">
+        <v>1.13</v>
+      </c>
+      <c r="AW24">
+        <v>2.2</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>3</v>
+      </c>
+      <c r="BG24">
+        <v>7</v>
+      </c>
+      <c r="BH24">
+        <v>1</v>
+      </c>
+      <c r="BI24">
+        <v>6</v>
+      </c>
+      <c r="BJ24">
+        <v>4</v>
+      </c>
+      <c r="BK24">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK24"/>
+  <dimension ref="A1:BK30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT4" t="n">
         <v>0.5</v>
@@ -2527,7 +2527,7 @@
         <v>1.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT12" t="n">
         <v>1.5</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0.92</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0.97</v>
@@ -5421,6 +5421,1224 @@
       </c>
       <c r="BK24" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5451991</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Uruguay Segunda División</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Juventud</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Potencia</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>['11', '55']</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>7</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5451974</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Uruguay Segunda División</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45018.52083333334</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Sud América</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['79', '90+5']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>7</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5451973</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Uruguay Segunda División</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45018.66666666666</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Uruguay Montevideo FC</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Albion</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['57', '70']</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5451972</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Uruguay Segunda División</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45018.6875</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Atenas</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Oriental</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>9</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5451990</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Uruguay Segunda División</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45018.70833333334</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Tacuarembó</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Bella Vista</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>['56', '46', '89']</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5451992</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Uruguay Segunda División</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45018.77083333334</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Cerrito</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Miramar Misiones</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['40', '90+9']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['81', '90']</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7</v>
+      </c>
+      <c r="S30" t="n">
+        <v>12</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK30"/>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT7" t="n">
         <v>2</v>
@@ -2121,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>1.5</v>
@@ -2933,7 +2933,7 @@
         <v>0.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT15" t="n">
         <v>1.5</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT17" t="n">
         <v>3</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU21" t="n">
         <v>1.68</v>
@@ -4963,7 +4963,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU22" t="n">
         <v>2.07</v>
@@ -6639,6 +6639,615 @@
       </c>
       <c r="BK30" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5451976</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Uruguay Segunda División</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45023.64583333334</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Sud América</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['11', '24', '55']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>9</v>
+      </c>
+      <c r="R31" t="n">
+        <v>8</v>
+      </c>
+      <c r="S31" t="n">
+        <v>17</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5451977</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Uruguay Segunda División</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45023.75</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Albion</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Atenas</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>6</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>8</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5451995</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Uruguay Segunda División</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45024.52083333334</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Potencia</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Tacuarembó</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['32', '42']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['45+1', '67']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>7</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>11</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK33"/>
+  <dimension ref="A1:BK36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>2.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>1.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU20" t="n">
         <v>1.18</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT23" t="n">
         <v>1.5</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT24" t="n">
         <v>1.5</v>
@@ -7248,6 +7248,615 @@
       </c>
       <c r="BK33" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5451975</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Uruguay Segunda División</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45024.64583333334</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Oriental</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>7</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5451993</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Uruguay Segunda División</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45025.51041666666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Bella Vista</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Cerrito</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['24', '68']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7</v>
+      </c>
+      <c r="S35" t="n">
+        <v>8</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5451994</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Uruguay Segunda División</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45025.85416666666</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Miramar Misiones</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Rentistas</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['26', '55']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>9</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
